--- a/Data Transformation 2.xlsx
+++ b/Data Transformation 2.xlsx
@@ -2,24 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D2E2F0-4DF5-46EA-8744-017A9305F72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A329916D-838B-4109-B7DE-FC4200F734B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{22EBE12A-48EA-42F3-A1E9-FDDB2993919D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sales" sheetId="1" r:id="rId1"/>
-    <sheet name="Amount Sales (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Amount Sales (3)" sheetId="3" r:id="rId1"/>
+    <sheet name="Sales" sheetId="1" r:id="rId2"/>
+    <sheet name="Amount Sales (2)" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Amount Sales (2)'!$A$1:$C$96</definedName>
+    <definedName name="_xlcn.WorksheetConnection_DataTransformation2.xlsxSales1" hidden="1">Sales[]</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Amount Sales (2)'!$A$1:$E$96</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Amount Sales (3)'!$A$1:$C$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +34,18 @@
       <x15:dataModel>
         <x15:modelTables>
           <x15:modelTable id="Sales_88123716-5e94-49fa-8641-8aa75a23ade8" name="Sales" connection="Query - Sales"/>
+          <x15:modelTable id="Sales 1" name="Sales 1" connection="WorksheetConnection_Data Transformation 2.xlsx!Sales"/>
         </x15:modelTables>
+        <x15:extLst>
+          <ext xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" uri="{9835A34E-60A6-4A7C-AAB8-D5F71C897F49}">
+            <x16:modelTimeGroupings>
+              <x16:modelTimeGrouping tableName="Sales" columnName="Date" columnId="Date">
+                <x16:calculatedTimeColumn columnName="Date (Month Index)" columnId="Date (Month Index)" contentType="monthsindex" isSelected="1"/>
+                <x16:calculatedTimeColumn columnName="Date (Month)" columnId="Date (Month)" contentType="months" isSelected="1"/>
+              </x16:modelTimeGrouping>
+            </x16:modelTimeGroupings>
+          </ext>
+        </x15:extLst>
       </x15:dataModel>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -53,14 +70,22 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="2" xr16:uid="{F8218E8D-2CFB-4AD5-AD4C-76E0C73D4BA0}" name="Query - Sales" description="Connection to the 'Sales' query in the workbook." type="100" refreshedVersion="7" minRefreshableVersion="5">
+  <connection id="2" xr16:uid="{9A2D2929-8416-4E2A-87A5-CF61A37A5D24}" keepAlive="1" name="ModelConnection_ExternalData_11" description="Data Model" type="5" refreshedVersion="7" minRefreshableVersion="5" saveData="1">
+    <dbPr connection="Data Model Connection" command="Sales" commandType="3"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="3" xr16:uid="{F8218E8D-2CFB-4AD5-AD4C-76E0C73D4BA0}" name="Query - Sales" description="Connection to the 'Sales' query in the workbook." type="100" refreshedVersion="7" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="ff660a7b-d793-4128-b537-fa0366415208"/>
       </ext>
     </extLst>
   </connection>
-  <connection id="3" xr16:uid="{D339B71A-1B1A-4373-86FD-015610188F0E}" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="7" minRefreshableVersion="5" background="1">
+  <connection id="4" xr16:uid="{D339B71A-1B1A-4373-86FD-015610188F0E}" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="7" minRefreshableVersion="5" background="1">
     <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
     <extLst>
@@ -69,11 +94,20 @@
       </ext>
     </extLst>
   </connection>
+  <connection id="5" xr16:uid="{B5E352F6-7F48-41CE-9237-22689FB18C9A}" name="WorksheetConnection_Data Transformation 2.xlsx!Sales" type="102" refreshedVersion="7" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Sales 1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_DataTransformation2.xlsxSales1"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="125">
   <si>
     <t>Total</t>
   </si>
@@ -448,12 +482,39 @@
   <si>
     <t>To do that, we select transform power query editor, click format then click capitalize the whole datasets to make neat and cleaned</t>
   </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Date (Month Index)</t>
+  </si>
+  <si>
+    <t>Date (Month)</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Sum of Amount</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="7" formatCode="&quot;₦&quot;#,##0.00;\-&quot;₦&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +534,12 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -498,22 +565,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -524,6 +602,11 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -538,13 +621,213 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="USER" refreshedDate="45866.668532175929" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{548AE93A-018E-49B3-BA14-B4096BACF5C7}">
+  <cacheSource type="external" connectionId="4"/>
+  <cacheFields count="3">
+    <cacheField name="[Measures].[Sum of Amount]" caption="Sum of Amount" numFmtId="0" hierarchy="13" level="32767"/>
+    <cacheField name="[Sales].[Date (Month)].[Date (Month)]" caption="Date (Month)" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="2">
+        <s v="Mar"/>
+        <s v="Apr"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Sales].[Store].[Store]" caption="Store" numFmtId="0" hierarchy="1" level="1">
+      <sharedItems count="3">
+        <s v="London"/>
+        <s v="New York"/>
+        <s v="Toronto"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="15">
+    <cacheHierarchy uniqueName="[Sales].[Date]" caption="Date" attribute="1" time="1" defaultMemberUniqueName="[Sales].[Date].[All]" allUniqueName="[Sales].[Date].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="2" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales].[Store]" caption="Store" attribute="1" defaultMemberUniqueName="[Sales].[Store].[All]" allUniqueName="[Sales].[Store].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Sales].[Amount]" caption="Amount" attribute="1" defaultMemberUniqueName="[Sales].[Amount].[All]" allUniqueName="[Sales].[Amount].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales].[Date (Month)]" caption="Date (Month)" attribute="1" defaultMemberUniqueName="[Sales].[Date (Month)].[All]" allUniqueName="[Sales].[Date (Month)].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Sales 1].[Date]" caption="Date" attribute="1" time="1" defaultMemberUniqueName="[Sales 1].[Date].[All]" allUniqueName="[Sales 1].[Date].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales 1].[Store]" caption="Store" attribute="1" defaultMemberUniqueName="[Sales 1].[Store].[All]" allUniqueName="[Sales 1].[Store].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales 1].[Amount]" caption="Amount" attribute="1" defaultMemberUniqueName="[Sales 1].[Amount].[All]" allUniqueName="[Sales 1].[Amount].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales 1].[Date (Month Index)]" caption="Date (Month Index)" attribute="1" defaultMemberUniqueName="[Sales 1].[Date (Month Index)].[All]" allUniqueName="[Sales 1].[Date (Month Index)].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales 1].[Date (Month)]" caption="Date (Month)" attribute="1" defaultMemberUniqueName="[Sales 1].[Date (Month)].[All]" allUniqueName="[Sales 1].[Date (Month)].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales].[Date (Month Index)]" caption="Date (Month Index)" attribute="1" defaultMemberUniqueName="[Sales].[Date (Month Index)].[All]" allUniqueName="[Sales].[Date (Month Index)].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Sales]" caption="__XL_Count Sales" measure="1" displayFolder="" measureGroup="Sales" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Sales 1]" caption="__XL_Count Sales 1" measure="1" displayFolder="" measureGroup="Sales 1" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Amount]" caption="Sum of Amount" measure="1" displayFolder="" measureGroup="Sales" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="2"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Date (Month Index)]" caption="Sum of Date (Month Index)" measure="1" displayFolder="" measureGroup="Sales 1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="7"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Sales" uniqueName="[Sales]" caption="Sales"/>
+    <dimension name="Sales 1" uniqueName="[Sales 1]" caption="Sales 1"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="Sales" caption="Sales"/>
+    <measureGroup name="Sales 1" caption="Sales 1"/>
+  </measureGroups>
+  <maps count="2">
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B09DED53-BD21-413F-9518-0BD26773F66C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J3:N7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="15">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="1"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[Sales]"/>
+        <x15:activeTabTopLevelEntity name="[Sales 1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" backgroundRefresh="0" connectionId="1" xr16:uid="{0F09C126-EE71-499B-AD06-BC8161300F42}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="4">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" backgroundRefresh="0" connectionId="2" xr16:uid="{8CF672E0-557B-4512-8B7B-AC8F59AA2738}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="6">
     <queryTableFields count="3">
       <queryTableField id="1" name="Date" tableColumnId="1"/>
       <queryTableField id="2" name="Store" tableColumnId="2"/>
       <queryTableField id="3" name="Amount" tableColumnId="3"/>
+    </queryTableFields>
+    <queryTableDeletedFields count="2">
+      <deletedField name="Date (Month Index)"/>
+      <deletedField name="Date (Month)"/>
+    </queryTableDeletedFields>
+  </queryTableRefresh>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{883FBD77-0823-4a55-B5E3-86C4891E6966}">
+      <x15:queryTable sourceDataName="Query - Sales"/>
+    </ext>
+  </extLst>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" backgroundRefresh="0" connectionId="1" xr16:uid="{0F09C126-EE71-499B-AD06-BC8161300F42}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="6">
+    <queryTableFields count="5">
+      <queryTableField id="1" name="Date" tableColumnId="1"/>
+      <queryTableField id="2" name="Store" tableColumnId="2"/>
+      <queryTableField id="3" name="Amount" tableColumnId="3"/>
+      <queryTableField id="4" name="Date (Month Index)" tableColumnId="4"/>
+      <queryTableField id="5" name="Date (Month)" tableColumnId="5"/>
     </queryTableFields>
   </queryTableRefresh>
   <extLst>
@@ -556,12 +839,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78AC5767-60D1-4607-8D97-AFDC4658CC28}" name="Sales" displayName="Sales" ref="A1:C96" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B60EFDBD-6EAC-47D3-9671-44DF35F1E69B}" name="Sales3" displayName="Sales3" ref="A1:C96" tableType="queryTable" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:C96" xr:uid="{78AC5767-60D1-4607-8D97-AFDC4658CC28}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7A054EA6-A19C-483B-8A9B-0E1C1AAAA681}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{8EF6BCAA-1D09-4544-ACF4-4010DB61C82C}" uniqueName="2" name="Store" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{19D8D0C5-56E2-44AA-AB8E-17BD508F5A21}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{4912AEDE-4E09-42F8-9D29-E949DDF27435}" uniqueName="2" name="Store" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{B6D8FA86-59A6-461C-87C1-E2E2F8DE87E4}" uniqueName="3" name="Amount" queryTableFieldId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78AC5767-60D1-4607-8D97-AFDC4658CC28}" name="Sales" displayName="Sales" ref="A1:E96" tableType="queryTable" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:E96" xr:uid="{78AC5767-60D1-4607-8D97-AFDC4658CC28}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7A054EA6-A19C-483B-8A9B-0E1C1AAAA681}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{8EF6BCAA-1D09-4544-ACF4-4010DB61C82C}" uniqueName="2" name="Store" queryTableFieldId="2" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{ABFEF1C7-206B-4B31-A836-85D0AAD02FBB}" uniqueName="3" name="Amount" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{876593B4-AC75-408B-9D66-093EBC2BB82B}" uniqueName="4" name="Date (Month Index)" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{9243E13D-4370-4E8E-8E31-C50EB1D60D0D}" uniqueName="5" name="Date (Month)" queryTableFieldId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -863,16 +1160,1177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B071C6-F736-447F-95BD-F52323B67DD4}">
-  <dimension ref="A1:J130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876CEB55-4CAC-45F2-A8D8-394031A29167}">
+  <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="42" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>252</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4">
+        <v>1858</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5">
+        <v>407</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="7">
+        <v>49608</v>
+      </c>
+      <c r="L5" s="7">
+        <v>53570</v>
+      </c>
+      <c r="M5" s="7">
+        <v>53802</v>
+      </c>
+      <c r="N5" s="7">
+        <v>156980</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>887</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" s="7">
+        <v>3100</v>
+      </c>
+      <c r="L6" s="7">
+        <v>2231</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1429</v>
+      </c>
+      <c r="N6" s="7">
+        <v>6760</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7">
+        <v>2968</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="7">
+        <v>52708</v>
+      </c>
+      <c r="L7" s="7">
+        <v>55801</v>
+      </c>
+      <c r="M7" s="7">
+        <v>55231</v>
+      </c>
+      <c r="N7" s="7">
+        <v>163740</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96">
+        <v>3100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B071C6-F736-447F-95BD-F52323B67DD4}">
+  <dimension ref="A1:J130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="48.42578125" customWidth="1"/>
   </cols>
@@ -886,10 +2344,10 @@
       <c r="A2" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -898,7 +2356,7 @@
       <c r="C3">
         <v>1745</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -943,7 +2401,7 @@
       <c r="C7">
         <v>1858</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>110</v>
       </c>
     </row>
@@ -974,7 +2432,7 @@
         <f>SUM(C7:C9)</f>
         <v>3152</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>112</v>
       </c>
     </row>
@@ -985,7 +2443,7 @@
       <c r="C11">
         <v>2968</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -996,7 +2454,7 @@
       <c r="C12">
         <v>2778</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1007,7 +2465,7 @@
       <c r="C13">
         <v>1566</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1019,7 +2477,7 @@
         <f>SUM(C11:C13)</f>
         <v>7312</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="4" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1992,22 +3450,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634A6044-454A-4AAB-8072-34D25AC53A3C}">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>96</v>
       </c>
@@ -2017,8 +3477,14 @@
       <c r="C1" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43891</v>
       </c>
@@ -2028,8 +3494,14 @@
       <c r="C2">
         <v>391</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43891</v>
       </c>
@@ -2039,8 +3511,14 @@
       <c r="C3">
         <v>252</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43892</v>
       </c>
@@ -2050,8 +3528,14 @@
       <c r="C4">
         <v>1858</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43892</v>
       </c>
@@ -2061,8 +3545,14 @@
       <c r="C5">
         <v>407</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -2072,8 +3562,14 @@
       <c r="C6">
         <v>887</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -2083,8 +3579,14 @@
       <c r="C7">
         <v>2968</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43893</v>
       </c>
@@ -2094,8 +3596,14 @@
       <c r="C8">
         <v>2778</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43893</v>
       </c>
@@ -2105,8 +3613,14 @@
       <c r="C9">
         <v>1566</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43894</v>
       </c>
@@ -2116,8 +3630,14 @@
       <c r="C10">
         <v>1470</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43894</v>
       </c>
@@ -2127,8 +3647,14 @@
       <c r="C11">
         <v>1841</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43894</v>
       </c>
@@ -2138,8 +3664,14 @@
       <c r="C12">
         <v>850</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43895</v>
       </c>
@@ -2149,8 +3681,14 @@
       <c r="C13">
         <v>2174</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43895</v>
       </c>
@@ -2160,8 +3698,14 @@
       <c r="C14">
         <v>478</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43895</v>
       </c>
@@ -2171,8 +3715,14 @@
       <c r="C15">
         <v>683</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43896</v>
       </c>
@@ -2182,8 +3732,14 @@
       <c r="C16">
         <v>817</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43896</v>
       </c>
@@ -2193,8 +3749,14 @@
       <c r="C17">
         <v>283</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43896</v>
       </c>
@@ -2204,8 +3766,14 @@
       <c r="C18">
         <v>1800</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43897</v>
       </c>
@@ -2215,8 +3783,14 @@
       <c r="C19">
         <v>1902</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43897</v>
       </c>
@@ -2226,8 +3800,14 @@
       <c r="C20">
         <v>1445</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43897</v>
       </c>
@@ -2237,8 +3817,14 @@
       <c r="C21">
         <v>296</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43898</v>
       </c>
@@ -2248,8 +3834,14 @@
       <c r="C22">
         <v>1427</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43898</v>
       </c>
@@ -2259,8 +3851,14 @@
       <c r="C23">
         <v>958</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43898</v>
       </c>
@@ -2270,8 +3868,14 @@
       <c r="C24">
         <v>1173</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43899</v>
       </c>
@@ -2281,8 +3885,14 @@
       <c r="C25">
         <v>2082</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43899</v>
       </c>
@@ -2292,8 +3902,14 @@
       <c r="C26">
         <v>2857</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43899</v>
       </c>
@@ -2303,8 +3919,14 @@
       <c r="C27">
         <v>449</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43900</v>
       </c>
@@ -2314,8 +3936,14 @@
       <c r="C28">
         <v>2703</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43900</v>
       </c>
@@ -2325,8 +3953,14 @@
       <c r="C29">
         <v>593</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43900</v>
       </c>
@@ -2336,8 +3970,14 @@
       <c r="C30">
         <v>700</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43901</v>
       </c>
@@ -2347,8 +3987,14 @@
       <c r="C31">
         <v>2242</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43901</v>
       </c>
@@ -2358,8 +4004,14 @@
       <c r="C32">
         <v>2849</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43901</v>
       </c>
@@ -2369,8 +4021,14 @@
       <c r="C33">
         <v>1513</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43902</v>
       </c>
@@ -2380,8 +4038,14 @@
       <c r="C34">
         <v>1912</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43902</v>
       </c>
@@ -2391,8 +4055,14 @@
       <c r="C35">
         <v>2452</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43902</v>
       </c>
@@ -2402,8 +4072,14 @@
       <c r="C36">
         <v>836</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43903</v>
       </c>
@@ -2413,8 +4089,14 @@
       <c r="C37">
         <v>1812</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43903</v>
       </c>
@@ -2424,8 +4106,14 @@
       <c r="C38">
         <v>1377</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43903</v>
       </c>
@@ -2435,8 +4123,14 @@
       <c r="C39">
         <v>2928</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43904</v>
       </c>
@@ -2446,8 +4140,14 @@
       <c r="C40">
         <v>2105</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43904</v>
       </c>
@@ -2457,8 +4157,14 @@
       <c r="C41">
         <v>1064</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43904</v>
       </c>
@@ -2468,8 +4174,14 @@
       <c r="C42">
         <v>1044</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43905</v>
       </c>
@@ -2479,8 +4191,14 @@
       <c r="C43">
         <v>1801</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43905</v>
       </c>
@@ -2490,8 +4208,14 @@
       <c r="C44">
         <v>849</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43905</v>
       </c>
@@ -2501,8 +4225,14 @@
       <c r="C45">
         <v>2639</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43906</v>
       </c>
@@ -2512,8 +4242,14 @@
       <c r="C46">
         <v>852</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43906</v>
       </c>
@@ -2523,8 +4259,14 @@
       <c r="C47">
         <v>1167</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43906</v>
       </c>
@@ -2534,8 +4276,14 @@
       <c r="C48">
         <v>2330</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43907</v>
       </c>
@@ -2545,8 +4293,14 @@
       <c r="C49">
         <v>2358</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43907</v>
       </c>
@@ -2556,8 +4310,14 @@
       <c r="C50">
         <v>1985</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43907</v>
       </c>
@@ -2567,8 +4327,14 @@
       <c r="C51">
         <v>1781</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43908</v>
       </c>
@@ -2578,8 +4344,14 @@
       <c r="C52">
         <v>2543</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43908</v>
       </c>
@@ -2589,8 +4361,14 @@
       <c r="C53">
         <v>2308</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43908</v>
       </c>
@@ -2600,8 +4378,14 @@
       <c r="C54">
         <v>2040</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43909</v>
       </c>
@@ -2611,8 +4395,14 @@
       <c r="C55">
         <v>963</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43909</v>
       </c>
@@ -2622,8 +4412,14 @@
       <c r="C56">
         <v>2337</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43909</v>
       </c>
@@ -2633,8 +4429,14 @@
       <c r="C57">
         <v>964</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43910</v>
       </c>
@@ -2644,8 +4446,14 @@
       <c r="C58">
         <v>2977</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43910</v>
       </c>
@@ -2655,8 +4463,14 @@
       <c r="C59">
         <v>2233</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43910</v>
       </c>
@@ -2666,8 +4480,14 @@
       <c r="C60">
         <v>1456</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43911</v>
       </c>
@@ -2677,8 +4497,14 @@
       <c r="C61">
         <v>2464</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43911</v>
       </c>
@@ -2688,8 +4514,14 @@
       <c r="C62">
         <v>2153</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43911</v>
       </c>
@@ -2699,8 +4531,14 @@
       <c r="C63">
         <v>1438</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43912</v>
       </c>
@@ -2710,8 +4548,14 @@
       <c r="C64">
         <v>1037</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43912</v>
       </c>
@@ -2721,8 +4565,14 @@
       <c r="C65">
         <v>2710</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43912</v>
       </c>
@@ -2732,8 +4582,14 @@
       <c r="C66">
         <v>2281</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43913</v>
       </c>
@@ -2743,8 +4599,14 @@
       <c r="C67">
         <v>1478</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43913</v>
       </c>
@@ -2754,8 +4616,14 @@
       <c r="C68">
         <v>1254</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43913</v>
       </c>
@@ -2765,8 +4633,14 @@
       <c r="C69">
         <v>2507</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43914</v>
       </c>
@@ -2776,8 +4650,14 @@
       <c r="C70">
         <v>846</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43914</v>
       </c>
@@ -2787,8 +4667,14 @@
       <c r="C71">
         <v>363</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43914</v>
       </c>
@@ -2798,8 +4684,14 @@
       <c r="C72">
         <v>1824</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43915</v>
       </c>
@@ -2809,8 +4701,14 @@
       <c r="C73">
         <v>2243</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43915</v>
       </c>
@@ -2820,8 +4718,14 @@
       <c r="C74">
         <v>2040</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43915</v>
       </c>
@@ -2831,8 +4735,14 @@
       <c r="C75">
         <v>2281</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43916</v>
       </c>
@@ -2842,8 +4752,14 @@
       <c r="C76">
         <v>2028</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43916</v>
       </c>
@@ -2853,8 +4769,14 @@
       <c r="C77">
         <v>2352</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43916</v>
       </c>
@@ -2864,8 +4786,14 @@
       <c r="C78">
         <v>2080</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43917</v>
       </c>
@@ -2875,8 +4803,14 @@
       <c r="C79">
         <v>435</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43917</v>
       </c>
@@ -2886,8 +4820,14 @@
       <c r="C80">
         <v>2000</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43917</v>
       </c>
@@ -2897,8 +4837,14 @@
       <c r="C81">
         <v>2964</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43918</v>
       </c>
@@ -2908,8 +4854,14 @@
       <c r="C82">
         <v>2965</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43918</v>
       </c>
@@ -2919,8 +4871,14 @@
       <c r="C83">
         <v>2850</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43918</v>
       </c>
@@ -2930,8 +4888,14 @@
       <c r="C84">
         <v>890</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43919</v>
       </c>
@@ -2941,8 +4905,14 @@
       <c r="C85">
         <v>2108</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43919</v>
       </c>
@@ -2952,8 +4922,14 @@
       <c r="C86">
         <v>1764</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43919</v>
       </c>
@@ -2963,8 +4939,14 @@
       <c r="C87">
         <v>2818</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43920</v>
       </c>
@@ -2974,8 +4956,14 @@
       <c r="C88">
         <v>530</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43920</v>
       </c>
@@ -2985,8 +4973,14 @@
       <c r="C89">
         <v>2812</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43920</v>
       </c>
@@ -2996,8 +4990,14 @@
       <c r="C90">
         <v>1518</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43921</v>
       </c>
@@ -3007,8 +5007,14 @@
       <c r="C91">
         <v>702</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43921</v>
       </c>
@@ -3018,8 +5024,14 @@
       <c r="C92">
         <v>2620</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43921</v>
       </c>
@@ -3029,8 +5041,14 @@
       <c r="C93">
         <v>2820</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43922</v>
       </c>
@@ -3040,8 +5058,14 @@
       <c r="C94">
         <v>1429</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43922</v>
       </c>
@@ -3051,8 +5075,14 @@
       <c r="C95">
         <v>2231</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43922</v>
       </c>
@@ -3062,8 +5092,15 @@
       <c r="C96">
         <v>3100</v>
       </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
